--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3132.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3132.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9731319497173635</v>
+        <v>1.513731718063354</v>
       </c>
       <c r="B1">
-        <v>1.270494930478423</v>
+        <v>1.613121390342712</v>
       </c>
       <c r="C1">
-        <v>1.96439292194768</v>
+        <v>1.809494256973267</v>
       </c>
       <c r="D1">
-        <v>4.787011231358526</v>
+        <v>2.816995859146118</v>
       </c>
       <c r="E1">
-        <v>3.383934509843704</v>
+        <v>4.123106002807617</v>
       </c>
     </row>
   </sheetData>
